--- a/InvoiceExcel.xlsx
+++ b/InvoiceExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="76">
   <si>
     <t>invoiceid</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>1618292716868</t>
+  </si>
+  <si>
+    <t>1618322938358</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>104.5</t>
+  </si>
+  <si>
+    <t>2403.5</t>
+  </si>
+  <si>
+    <t>1618323369950</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>1618324032693</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>82000</t>
+  </si>
+  <si>
+    <t>9520.0</t>
+  </si>
+  <si>
+    <t>4760.0</t>
+  </si>
+  <si>
+    <t>109480.0</t>
   </si>
 </sst>
 </file>
@@ -523,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
@@ -1845,6 +1905,147 @@
       </c>
       <c r="O29" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/InvoiceExcel.xlsx
+++ b/InvoiceExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="129">
   <si>
     <t>invoiceid</t>
   </si>
@@ -244,6 +244,165 @@
   </si>
   <si>
     <t>109480.0</t>
+  </si>
+  <si>
+    <t>1618811376727</t>
+  </si>
+  <si>
+    <t>1618811650550</t>
+  </si>
+  <si>
+    <t>1619429748562</t>
+  </si>
+  <si>
+    <t>1619429998450</t>
+  </si>
+  <si>
+    <t>1619430136089</t>
+  </si>
+  <si>
+    <t>1619430244348</t>
+  </si>
+  <si>
+    <t>1619430548713</t>
+  </si>
+  <si>
+    <t>1619430678338</t>
+  </si>
+  <si>
+    <t>1619430817323</t>
+  </si>
+  <si>
+    <t>1619431360828</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>207.0</t>
+  </si>
+  <si>
+    <t>103.5</t>
+  </si>
+  <si>
+    <t>2380.5</t>
+  </si>
+  <si>
+    <t>1619432469380</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>1391.5</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>2081.5</t>
+  </si>
+  <si>
+    <t>1619432691091</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>2277.0</t>
+  </si>
+  <si>
+    <t>1619433453988</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>1817.0</t>
+  </si>
+  <si>
+    <t>1619434378088</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>2162.0</t>
+  </si>
+  <si>
+    <t>1619434532758</t>
+  </si>
+  <si>
+    <t>1619434666539</t>
+  </si>
+  <si>
+    <t>1619445486367</t>
+  </si>
+  <si>
+    <t>1619446363058</t>
+  </si>
+  <si>
+    <t>1619446496775</t>
+  </si>
+  <si>
+    <t>1619446887302</t>
+  </si>
+  <si>
+    <t>1619447127546</t>
+  </si>
+  <si>
+    <t>1619447229589</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>2346.0</t>
+  </si>
+  <si>
+    <t>1619447356574</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>2392.0</t>
   </si>
 </sst>
 </file>
@@ -583,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
@@ -2046,6 +2205,924 @@
       </c>
       <c r="O32" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" t="s">
+        <v>88</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" t="s">
+        <v>93</v>
+      </c>
+      <c r="N43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" t="s">
+        <v>96</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" t="s">
+        <v>101</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" t="s">
+        <v>105</v>
+      </c>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" t="s">
+        <v>109</v>
+      </c>
+      <c r="N47" t="s">
+        <v>110</v>
+      </c>
+      <c r="O47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" t="s">
+        <v>126</v>
+      </c>
+      <c r="N56" t="s">
+        <v>127</v>
+      </c>
+      <c r="O56" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
